--- a/science_proficiency_charter_schools_only.xlsx
+++ b/science_proficiency_charter_schools_only.xlsx
@@ -560,16 +560,30 @@
       <c r="I2" t="n">
         <v>9</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="n">
         <v>7</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -611,17 +625,27 @@
       <c r="I3" t="n">
         <v>7</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
@@ -666,16 +690,30 @@
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -717,14 +755,24 @@
       <c r="I5" t="n">
         <v>32</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="n">
         <v>50</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" t="n">
         <v>7</v>
       </c>
@@ -769,17 +817,33 @@
       <c r="H6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="n">
         <v>7</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -821,15 +885,27 @@
       <c r="I7" t="n">
         <v>8</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" t="n">
         <v>24</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
@@ -865,17 +941,39 @@
           <t>CHARTER SCH</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -917,17 +1015,27 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
@@ -972,16 +1080,30 @@
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1014,17 +1136,39 @@
           <t>CHARTER SCH</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1066,15 +1210,27 @@
       <c r="I12" t="n">
         <v>54</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>103</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
       <c r="Q12" t="n">
         <v>13</v>
       </c>
@@ -1119,15 +1275,27 @@
       <c r="I13" t="n">
         <v>33</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
       <c r="L13" t="n">
         <v>61</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
       <c r="Q13" t="n">
         <v>7</v>
       </c>
@@ -1172,17 +1340,27 @@
       <c r="I14" t="n">
         <v>15</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="n">
         <v>6</v>
       </c>
       <c r="L14" t="n">
         <v>32</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
       <c r="Q14" t="n">
         <v>6</v>
       </c>
@@ -1227,17 +1405,27 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="n">
         <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
@@ -1282,17 +1470,27 @@
       <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="n">
         <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>16</v>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
       <c r="Q16" t="n">
         <v>2</v>
       </c>
@@ -1337,15 +1535,27 @@
       <c r="I17" t="n">
         <v>30</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="n">
         <v>49</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
       <c r="Q17" t="n">
         <v>6</v>
       </c>
@@ -1390,17 +1600,27 @@
       <c r="I18" t="n">
         <v>28</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="n">
         <v>15</v>
       </c>
       <c r="L18" t="n">
         <v>40</v>
       </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
       <c r="Q18" t="n">
         <v>9</v>
       </c>
@@ -1445,17 +1665,27 @@
       <c r="I19" t="n">
         <v>10</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="n">
         <v>6</v>
       </c>
       <c r="L19" t="n">
         <v>24</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
       <c r="Q19" t="n">
         <v>2</v>
       </c>
@@ -1500,7 +1730,9 @@
       <c r="I20" t="n">
         <v>34</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
         <v>8</v>
       </c>
@@ -1510,9 +1742,15 @@
       <c r="M20" t="n">
         <v>10</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
       <c r="Q20" t="n">
         <v>4</v>
       </c>
@@ -1557,15 +1795,27 @@
       <c r="I21" t="n">
         <v>3</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="n">
         <v>4</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
@@ -1610,15 +1860,27 @@
       <c r="I22" t="n">
         <v>4</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="n">
         <v>10</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
       <c r="Q22" t="n">
         <v>2</v>
       </c>
@@ -1663,15 +1925,27 @@
       <c r="I23" t="n">
         <v>9</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="n">
         <v>14</v>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
       <c r="Q23" t="n">
         <v>4</v>
       </c>
@@ -1716,15 +1990,27 @@
       <c r="I24" t="n">
         <v>8</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="n">
         <v>17</v>
       </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
@@ -1769,15 +2055,27 @@
       <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="n">
         <v>4</v>
       </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
@@ -1822,17 +2120,27 @@
       <c r="I26" t="n">
         <v>12</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="n">
         <v>6</v>
       </c>
       <c r="L26" t="n">
         <v>32</v>
       </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
       <c r="Q26" t="n">
         <v>4</v>
       </c>
@@ -1877,17 +2185,27 @@
       <c r="I27" t="n">
         <v>25</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="n">
         <v>2</v>
       </c>
       <c r="L27" t="n">
         <v>66</v>
       </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
       <c r="Q27" t="n">
         <v>7</v>
       </c>
@@ -1932,17 +2250,27 @@
       <c r="I28" t="n">
         <v>6</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="n">
         <v>6</v>
       </c>
       <c r="L28" t="n">
         <v>7</v>
       </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
@@ -1987,15 +2315,27 @@
       <c r="I29" t="n">
         <v>39</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
       <c r="L29" t="n">
         <v>73</v>
       </c>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
       <c r="Q29" t="n">
         <v>6</v>
       </c>
@@ -2040,15 +2380,27 @@
       <c r="I30" t="n">
         <v>2</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="n">
         <v>2</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
@@ -2093,17 +2445,27 @@
       <c r="I31" t="n">
         <v>9</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="n">
         <v>8</v>
       </c>
       <c r="L31" t="n">
         <v>13</v>
       </c>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
@@ -2148,15 +2510,27 @@
       <c r="I32" t="n">
         <v>7</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="n">
         <v>13</v>
       </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
       <c r="Q32" t="n">
         <v>2</v>
       </c>
@@ -2201,15 +2575,27 @@
       <c r="I33" t="n">
         <v>9</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
         <v>19</v>
       </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
@@ -2254,15 +2640,27 @@
       <c r="I34" t="n">
         <v>1</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="n">
         <v>2</v>
       </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
@@ -2307,15 +2705,27 @@
       <c r="I35" t="n">
         <v>5</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="n">
         <v>9</v>
       </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
@@ -2354,20 +2764,36 @@
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
       <c r="I36" t="n">
         <v>2</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="n">
         <v>3</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2403,18 +2829,36 @@
       <c r="G37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="n">
         <v>1</v>
       </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2456,15 +2900,27 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
@@ -2503,18 +2959,36 @@
       <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2547,17 +3021,39 @@
           <t>CHARTER SCH</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2593,20 +3089,36 @@
       <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2639,17 +3151,39 @@
           <t>CHARTER SCH</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2691,16 +3225,30 @@
       <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
       <c r="L43" t="n">
         <v>3</v>
       </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2736,20 +3284,36 @@
       <c r="G44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2785,20 +3349,36 @@
       <c r="G45" t="n">
         <v>0</v>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2834,18 +3414,36 @@
       <c r="G46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="n">
         <v>1</v>
       </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2878,17 +3476,39 @@
           <t>CHARTER SCH</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2927,17 +3547,33 @@
       <c r="H48" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
       <c r="L48" t="n">
         <v>2</v>
       </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2976,17 +3612,33 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3022,18 +3674,36 @@
       <c r="G50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3075,16 +3745,30 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3126,16 +3810,30 @@
       <c r="I52" t="n">
         <v>1</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="n">
         <v>2</v>
       </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3177,15 +3875,27 @@
       <c r="I53" t="n">
         <v>2</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
       <c r="L53" t="n">
         <v>5</v>
       </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
       <c r="Q53" t="n">
         <v>1</v>
       </c>
@@ -3230,15 +3940,27 @@
       <c r="I54" t="n">
         <v>5</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
       <c r="L54" t="n">
         <v>10</v>
       </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
       <c r="Q54" t="n">
         <v>2</v>
       </c>
@@ -3286,16 +4008,24 @@
       <c r="J55" t="n">
         <v>2</v>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
       <c r="L55" t="n">
         <v>16</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
       <c r="Q55" t="n">
         <v>4</v>
       </c>
@@ -3340,15 +4070,27 @@
       <c r="I56" t="n">
         <v>2</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="n">
         <v>4</v>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
       <c r="Q56" t="n">
         <v>2</v>
       </c>
@@ -3393,16 +4135,30 @@
       <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="n">
         <v>2</v>
       </c>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3444,15 +4200,27 @@
       <c r="I58" t="n">
         <v>16</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
       <c r="L58" t="n">
         <v>37</v>
       </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
       <c r="Q58" t="n">
         <v>6</v>
       </c>
@@ -3497,15 +4265,27 @@
       <c r="I59" t="n">
         <v>13</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
       <c r="L59" t="n">
         <v>29</v>
       </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
       <c r="Q59" t="n">
         <v>1</v>
       </c>
@@ -3550,15 +4330,27 @@
       <c r="I60" t="n">
         <v>8</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="n">
         <v>21</v>
       </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
       <c r="Q60" t="n">
         <v>2</v>
       </c>
@@ -3603,15 +4395,27 @@
       <c r="I61" t="n">
         <v>19</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="n">
         <v>39</v>
       </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
       <c r="Q61" t="n">
         <v>2</v>
       </c>
@@ -3656,15 +4460,27 @@
       <c r="I62" t="n">
         <v>19</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="n">
         <v>35</v>
       </c>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
       <c r="Q62" t="n">
         <v>3</v>
       </c>
@@ -3709,15 +4525,27 @@
       <c r="I63" t="n">
         <v>14</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="n">
         <v>24</v>
       </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
       <c r="Q63" t="n">
         <v>1</v>
       </c>
@@ -3762,16 +4590,30 @@
       <c r="I64" t="n">
         <v>10</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
       <c r="L64" t="n">
         <v>15</v>
       </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3813,15 +4655,27 @@
       <c r="I65" t="n">
         <v>13</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="n">
         <v>21</v>
       </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
       <c r="Q65" t="n">
         <v>2</v>
       </c>
@@ -3875,10 +4729,18 @@
       <c r="L66" t="n">
         <v>4</v>
       </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
       <c r="Q66" t="n">
         <v>1</v>
       </c>
@@ -3935,9 +4797,15 @@
       <c r="M67" t="n">
         <v>10</v>
       </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
       <c r="Q67" t="n">
         <v>8</v>
       </c>
@@ -3982,15 +4850,27 @@
       <c r="I68" t="n">
         <v>9</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
       <c r="L68" t="n">
         <v>18</v>
       </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
       <c r="Q68" t="n">
         <v>2</v>
       </c>
@@ -4035,17 +4915,27 @@
       <c r="I69" t="n">
         <v>4</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>8</v>
       </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
@@ -4090,15 +4980,27 @@
       <c r="I70" t="n">
         <v>12</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="n">
         <v>21</v>
       </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
       <c r="Q70" t="n">
         <v>1</v>
       </c>
@@ -4143,15 +5045,27 @@
       <c r="I71" t="n">
         <v>22</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="n">
         <v>35</v>
       </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
       <c r="Q71" t="n">
         <v>2</v>
       </c>
@@ -4196,15 +5110,27 @@
       <c r="I72" t="n">
         <v>9</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="n">
         <v>15</v>
       </c>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
       <c r="Q72" t="n">
         <v>2</v>
       </c>
@@ -4249,15 +5175,27 @@
       <c r="I73" t="n">
         <v>15</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="n">
         <v>24</v>
       </c>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
       <c r="Q73" t="n">
         <v>0</v>
       </c>
@@ -4302,15 +5240,27 @@
       <c r="I74" t="n">
         <v>10</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
       <c r="L74" t="n">
         <v>22</v>
       </c>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
       <c r="Q74" t="n">
         <v>5</v>
       </c>
@@ -4355,17 +5305,27 @@
       <c r="I75" t="n">
         <v>28</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
         <v>18</v>
       </c>
       <c r="L75" t="n">
         <v>55</v>
       </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
       <c r="Q75" t="n">
         <v>12</v>
       </c>
@@ -4410,17 +5370,27 @@
       <c r="I76" t="n">
         <v>29</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="n">
         <v>17</v>
       </c>
       <c r="L76" t="n">
         <v>42</v>
       </c>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
       <c r="Q76" t="n">
         <v>7</v>
       </c>
@@ -4465,17 +5435,27 @@
       <c r="I77" t="n">
         <v>5</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="n">
         <v>13</v>
       </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
       <c r="Q77" t="n">
         <v>0</v>
       </c>
@@ -4520,15 +5500,27 @@
       <c r="I78" t="n">
         <v>21</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
       <c r="L78" t="n">
         <v>37</v>
       </c>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
       <c r="Q78" t="n">
         <v>5</v>
       </c>
@@ -4573,15 +5565,27 @@
       <c r="I79" t="n">
         <v>8</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="n">
         <v>19</v>
       </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
       <c r="Q79" t="n">
         <v>1</v>
       </c>
@@ -4626,17 +5630,27 @@
       <c r="I80" t="n">
         <v>18</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
         <v>10</v>
       </c>
       <c r="L80" t="n">
         <v>39</v>
       </c>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
       <c r="Q80" t="n">
         <v>9</v>
       </c>
@@ -4681,17 +5695,27 @@
       <c r="I81" t="n">
         <v>21</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
         <v>36</v>
       </c>
       <c r="L81" t="n">
         <v>7</v>
       </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
       <c r="Q81" t="n">
         <v>7</v>
       </c>
@@ -4736,15 +5760,27 @@
       <c r="I82" t="n">
         <v>21</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
         <v>32</v>
       </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
       <c r="Q82" t="n">
         <v>3</v>
       </c>
@@ -4789,17 +5825,27 @@
       <c r="I83" t="n">
         <v>46</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
         <v>52</v>
       </c>
       <c r="L83" t="n">
         <v>45</v>
       </c>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
       <c r="Q83" t="n">
         <v>11</v>
       </c>
@@ -4844,17 +5890,27 @@
       <c r="I84" t="n">
         <v>17</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="n">
         <v>4</v>
       </c>
       <c r="L84" t="n">
         <v>31</v>
       </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
       <c r="Q84" t="n">
         <v>10</v>
       </c>
@@ -4899,15 +5955,27 @@
       <c r="I85" t="n">
         <v>19</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
         <v>40</v>
       </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
       <c r="Q85" t="n">
         <v>4</v>
       </c>
@@ -4952,17 +6020,27 @@
       <c r="I86" t="n">
         <v>7</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="n">
         <v>9</v>
       </c>
       <c r="L86" t="n">
         <v>7</v>
       </c>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
       <c r="Q86" t="n">
         <v>0</v>
       </c>
@@ -5007,15 +6085,27 @@
       <c r="I87" t="n">
         <v>9</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
         <v>22</v>
       </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
       <c r="Q87" t="n">
         <v>2</v>
       </c>
@@ -5060,15 +6150,27 @@
       <c r="I88" t="n">
         <v>12</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
       <c r="L88" t="n">
         <v>22</v>
       </c>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
       <c r="Q88" t="n">
         <v>1</v>
       </c>
@@ -5113,15 +6215,27 @@
       <c r="I89" t="n">
         <v>15</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="n">
         <v>24</v>
       </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
       <c r="Q89" t="n">
         <v>3</v>
       </c>
@@ -5169,14 +6283,24 @@
       <c r="J90" t="n">
         <v>12</v>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
       <c r="L90" t="n">
         <v>32</v>
       </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
       <c r="Q90" t="n">
         <v>10</v>
       </c>
@@ -5212,17 +6336,39 @@
           <t>CHARTER SCH</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5264,16 +6410,30 @@
       <c r="I92" t="n">
         <v>10</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="n">
         <v>18</v>
       </c>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5315,16 +6475,30 @@
       <c r="I93" t="n">
         <v>2</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
       <c r="L93" t="n">
         <v>11</v>
       </c>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5366,15 +6540,27 @@
       <c r="I94" t="n">
         <v>11</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
       <c r="L94" t="n">
         <v>23</v>
       </c>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
       <c r="Q94" t="n">
         <v>8</v>
       </c>
@@ -5419,15 +6605,27 @@
       <c r="I95" t="n">
         <v>12</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
       <c r="L95" t="n">
         <v>21</v>
       </c>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
       <c r="Q95" t="n">
         <v>2</v>
       </c>
@@ -5472,15 +6670,27 @@
       <c r="I96" t="n">
         <v>13</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
       <c r="L96" t="n">
         <v>20</v>
       </c>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
       <c r="Q96" t="n">
         <v>1</v>
       </c>
@@ -5525,15 +6735,27 @@
       <c r="I97" t="n">
         <v>15</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
       <c r="L97" t="n">
         <v>36</v>
       </c>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
       <c r="Q97" t="n">
         <v>3</v>
       </c>
@@ -5578,15 +6800,27 @@
       <c r="I98" t="n">
         <v>18</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
       <c r="L98" t="n">
         <v>37</v>
       </c>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
+      </c>
       <c r="Q98" t="n">
         <v>5</v>
       </c>
@@ -5631,15 +6865,27 @@
       <c r="I99" t="n">
         <v>16</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
       <c r="L99" t="n">
         <v>34</v>
       </c>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
       <c r="Q99" t="n">
         <v>5</v>
       </c>
@@ -5684,15 +6930,27 @@
       <c r="I100" t="n">
         <v>7</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
       <c r="L100" t="n">
         <v>20</v>
       </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
       <c r="Q100" t="n">
         <v>1</v>
       </c>
@@ -5737,15 +6995,27 @@
       <c r="I101" t="n">
         <v>13</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
       <c r="L101" t="n">
         <v>28</v>
       </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
       <c r="Q101" t="n">
         <v>5</v>
       </c>
@@ -5790,15 +7060,27 @@
       <c r="I102" t="n">
         <v>13</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
       <c r="L102" t="n">
         <v>36</v>
       </c>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
       <c r="Q102" t="n">
         <v>4</v>
       </c>
@@ -5843,16 +7125,30 @@
       <c r="I103" t="n">
         <v>8</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="n">
         <v>15</v>
       </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5894,16 +7190,30 @@
       <c r="I104" t="n">
         <v>6</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
         <v>11</v>
       </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5945,16 +7255,30 @@
       <c r="I105" t="n">
         <v>11</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="n">
         <v>25</v>
       </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5996,16 +7320,30 @@
       <c r="I106" t="n">
         <v>25</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
         <v>35</v>
       </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6047,16 +7385,30 @@
       <c r="I107" t="n">
         <v>3</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
         <v>6</v>
       </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="inlineStr"/>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6098,17 +7450,27 @@
       <c r="I108" t="n">
         <v>17</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="n">
         <v>24</v>
       </c>
       <c r="L108" t="n">
         <v>11</v>
       </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr"/>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
       <c r="Q108" t="n">
         <v>5</v>
       </c>
@@ -6153,15 +7515,27 @@
       <c r="I109" t="n">
         <v>17</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="n">
         <v>38</v>
       </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="inlineStr"/>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
       <c r="Q109" t="n">
         <v>5</v>
       </c>
@@ -6206,16 +7580,30 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="n">
         <v>3</v>
       </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6257,15 +7645,27 @@
       <c r="I111" t="n">
         <v>7</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="n">
         <v>11</v>
       </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="inlineStr"/>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
       <c r="Q111" t="n">
         <v>2</v>
       </c>
@@ -6310,17 +7710,27 @@
       <c r="I112" t="n">
         <v>35</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="n">
         <v>45</v>
       </c>
       <c r="L112" t="n">
         <v>7</v>
       </c>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
       <c r="Q112" t="n">
         <v>4</v>
       </c>
@@ -6365,15 +7775,27 @@
       <c r="I113" t="n">
         <v>15</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="n">
         <v>29</v>
       </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
       <c r="Q113" t="n">
         <v>2</v>
       </c>
@@ -6418,15 +7840,27 @@
       <c r="I114" t="n">
         <v>30</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
       <c r="L114" t="n">
         <v>58</v>
       </c>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
       <c r="Q114" t="n">
         <v>3</v>
       </c>
@@ -6471,15 +7905,27 @@
       <c r="I115" t="n">
         <v>24</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
       <c r="L115" t="n">
         <v>42</v>
       </c>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
       <c r="Q115" t="n">
         <v>2</v>
       </c>
@@ -6524,17 +7970,27 @@
       <c r="I116" t="n">
         <v>29</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="n">
         <v>6</v>
       </c>
       <c r="L116" t="n">
         <v>55</v>
       </c>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
       <c r="Q116" t="n">
         <v>11</v>
       </c>
@@ -6579,17 +8035,27 @@
       <c r="I117" t="n">
         <v>21</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="n">
         <v>15</v>
       </c>
       <c r="L117" t="n">
         <v>26</v>
       </c>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
       <c r="Q117" t="n">
         <v>2</v>
       </c>
@@ -6634,16 +8100,30 @@
       <c r="I118" t="n">
         <v>2</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
         <v>4</v>
       </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6685,15 +8165,27 @@
       <c r="I119" t="n">
         <v>10</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
         <v>21</v>
       </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr"/>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
       <c r="Q119" t="n">
         <v>1</v>
       </c>
@@ -6738,16 +8230,30 @@
       <c r="I120" t="n">
         <v>8</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
         <v>12</v>
       </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="inlineStr"/>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6789,16 +8295,30 @@
       <c r="I121" t="n">
         <v>5</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
         <v>10</v>
       </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6837,15 +8357,33 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6899,9 +8437,15 @@
       <c r="M123" t="n">
         <v>11</v>
       </c>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
       <c r="Q123" t="n">
         <v>5</v>
       </c>
@@ -6927,7 +8471,9 @@
           <t>Kane</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr"/>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
       <c r="F124" t="inlineStr">
         <is>
           <t>CHARTER SCH</t>
@@ -6945,14 +8491,24 @@
       <c r="J124" t="n">
         <v>11</v>
       </c>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
       <c r="L124" t="n">
         <v>12</v>
       </c>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
       <c r="Q124" t="n">
         <v>4</v>
       </c>
@@ -6997,17 +8553,27 @@
       <c r="I125" t="n">
         <v>22</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
         <v>9</v>
       </c>
       <c r="L125" t="n">
         <v>26</v>
       </c>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
       <c r="Q125" t="n">
         <v>5</v>
       </c>
@@ -7052,18 +8618,30 @@
       <c r="I126" t="n">
         <v>4</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
         <v>4</v>
       </c>
       <c r="L126" t="n">
         <v>11</v>
       </c>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7108,14 +8686,24 @@
       <c r="J127" t="n">
         <v>48</v>
       </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
       <c r="M127" t="n">
         <v>9</v>
       </c>
-      <c r="N127" t="inlineStr"/>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
       <c r="Q127" t="n">
         <v>8</v>
       </c>
@@ -7160,17 +8748,27 @@
       <c r="I128" t="n">
         <v>25</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="n">
         <v>3</v>
       </c>
       <c r="L128" t="n">
         <v>49</v>
       </c>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
       <c r="Q128" t="n">
         <v>5</v>
       </c>
@@ -7215,16 +8813,30 @@
       <c r="I129" t="n">
         <v>7</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="n">
         <v>8</v>
       </c>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7266,17 +8878,27 @@
       <c r="I130" t="n">
         <v>17</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="n">
         <v>15</v>
       </c>
       <c r="L130" t="n">
         <v>9</v>
       </c>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
       <c r="Q130" t="n">
         <v>1</v>
       </c>
@@ -7321,16 +8943,30 @@
       <c r="I131" t="n">
         <v>4</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="n">
         <v>7</v>
       </c>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7378,10 +9014,18 @@
       <c r="K132" t="n">
         <v>20</v>
       </c>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="inlineStr"/>
-      <c r="O132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
       <c r="P132" t="n">
         <v>7</v>
       </c>
